--- a/таблица лр2.xlsx
+++ b/таблица лр2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Елизавета\Documents\Кубик\фун и лог прогр\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Елизавета\Documents\GitHub\Prolog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD94BBC-F6F9-44F6-BA34-94225D815247}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700CE632-B2C0-4902-B289-F3762E1FAC73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6787F25F-77EE-48DF-BDAA-65EF74578848}"/>
+    <workbookView xWindow="6888" yWindow="1356" windowWidth="16512" windowHeight="9912" xr2:uid="{6787F25F-77EE-48DF-BDAA-65EF74578848}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="79">
   <si>
     <t>Кем 
 является
@@ -285,6 +285,15 @@
   </si>
   <si>
     <t>Неизвестные системе персонажи:</t>
+  </si>
+  <si>
+    <t>Общие вопросы</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Отчет к заданию 4.</t>
   </si>
 </sst>
 </file>
@@ -309,7 +318,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -377,11 +386,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -402,6 +437,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -716,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4B4DB4-73EB-452A-ADB4-826C3DCE0A45}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2535,7 +2576,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>64</v>
       </c>
@@ -2569,6 +2610,1190 @@
       <c r="M49" t="s">
         <v>74</v>
       </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="B55" s="1"/>
+      <c r="C55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B56" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="16">
+        <v>0</v>
+      </c>
+      <c r="D56" s="17">
+        <v>0</v>
+      </c>
+      <c r="E56" s="17">
+        <v>0</v>
+      </c>
+      <c r="F56" s="17">
+        <v>0</v>
+      </c>
+      <c r="G56" s="17">
+        <v>0</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I56" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J56" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K56" s="17">
+        <v>0</v>
+      </c>
+      <c r="L56" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M56" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B57" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="16">
+        <v>0</v>
+      </c>
+      <c r="D57" s="17">
+        <v>0</v>
+      </c>
+      <c r="E57" s="17">
+        <v>0</v>
+      </c>
+      <c r="F57" s="17">
+        <v>1</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I57" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J57" s="17">
+        <v>0</v>
+      </c>
+      <c r="K57" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L57" s="17">
+        <v>0</v>
+      </c>
+      <c r="M57" s="17"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B58" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="16">
+        <v>0</v>
+      </c>
+      <c r="D58" s="17">
+        <v>0</v>
+      </c>
+      <c r="E58" s="17">
+        <v>0</v>
+      </c>
+      <c r="F58" s="17">
+        <v>2</v>
+      </c>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I58" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J58" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K58" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L58" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M58" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B59" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="16">
+        <v>0</v>
+      </c>
+      <c r="D59" s="17">
+        <v>2</v>
+      </c>
+      <c r="E59" s="17">
+        <v>1</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H59" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I59" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J59" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K59" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L59" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M59" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B60" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="16">
+        <v>0</v>
+      </c>
+      <c r="D60" s="17">
+        <v>0</v>
+      </c>
+      <c r="E60" s="17">
+        <v>0</v>
+      </c>
+      <c r="F60" s="17">
+        <v>0</v>
+      </c>
+      <c r="G60" s="17">
+        <v>0</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I60" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J60" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K60" s="17">
+        <v>1</v>
+      </c>
+      <c r="L60" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M60" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B61" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="16">
+        <v>0</v>
+      </c>
+      <c r="D61" s="17">
+        <v>0</v>
+      </c>
+      <c r="E61" s="17">
+        <v>0</v>
+      </c>
+      <c r="F61" s="17">
+        <v>1</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H61" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I61" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J61" s="17">
+        <v>0</v>
+      </c>
+      <c r="K61" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L61" s="17">
+        <v>1</v>
+      </c>
+      <c r="M61" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B62" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="16">
+        <v>0</v>
+      </c>
+      <c r="D62" s="17">
+        <v>0</v>
+      </c>
+      <c r="E62" s="17">
+        <v>0</v>
+      </c>
+      <c r="F62" s="17">
+        <v>1</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I62" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J62" s="17">
+        <v>1</v>
+      </c>
+      <c r="K62" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L62" s="17">
+        <v>1</v>
+      </c>
+      <c r="M62" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B63" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="16">
+        <v>0</v>
+      </c>
+      <c r="D63" s="17">
+        <v>0</v>
+      </c>
+      <c r="E63" s="17">
+        <v>0</v>
+      </c>
+      <c r="F63" s="17">
+        <v>1</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H63" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I63" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J63" s="17">
+        <v>1</v>
+      </c>
+      <c r="K63" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L63" s="17">
+        <v>0</v>
+      </c>
+      <c r="M63" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B64" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="16">
+        <v>0</v>
+      </c>
+      <c r="D64" s="17">
+        <v>0</v>
+      </c>
+      <c r="E64" s="17">
+        <v>0</v>
+      </c>
+      <c r="F64" s="17">
+        <v>0</v>
+      </c>
+      <c r="G64" s="17">
+        <v>1</v>
+      </c>
+      <c r="H64" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I64" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J64" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K64" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L64" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M64" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B65" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="16">
+        <v>0</v>
+      </c>
+      <c r="D65" s="17">
+        <v>0</v>
+      </c>
+      <c r="E65" s="17">
+        <v>1</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I65" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J65" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K65" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L65" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M65" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B66" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="16">
+        <v>0</v>
+      </c>
+      <c r="D66" s="17">
+        <v>1</v>
+      </c>
+      <c r="E66" s="17">
+        <v>0</v>
+      </c>
+      <c r="F66" s="17">
+        <v>2</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I66" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J66" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K66" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L66" s="17">
+        <v>0</v>
+      </c>
+      <c r="M66" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B67" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="16">
+        <v>0</v>
+      </c>
+      <c r="D67" s="17">
+        <v>1</v>
+      </c>
+      <c r="E67" s="17">
+        <v>0</v>
+      </c>
+      <c r="F67" s="17">
+        <v>2</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I67" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J67" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K67" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L67" s="17">
+        <v>1</v>
+      </c>
+      <c r="M67" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B68" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="16">
+        <v>0</v>
+      </c>
+      <c r="D68" s="17">
+        <v>1</v>
+      </c>
+      <c r="E68" s="17">
+        <v>1</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G68" s="17">
+        <v>0</v>
+      </c>
+      <c r="H68" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I68" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J68" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K68" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L68" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M68" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B69" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="16">
+        <v>0</v>
+      </c>
+      <c r="D69" s="17">
+        <v>1</v>
+      </c>
+      <c r="E69" s="17">
+        <v>0</v>
+      </c>
+      <c r="F69" s="17">
+        <v>0</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H69" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I69" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J69" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K69" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L69" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M69" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B70" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="16">
+        <v>0</v>
+      </c>
+      <c r="D70" s="17">
+        <v>1</v>
+      </c>
+      <c r="E70" s="17">
+        <v>1</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G70" s="17">
+        <v>1</v>
+      </c>
+      <c r="H70" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I70" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J70" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K70" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L70" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M70" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B71" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="16">
+        <v>0</v>
+      </c>
+      <c r="D71" s="17">
+        <v>2</v>
+      </c>
+      <c r="E71" s="17">
+        <v>0</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I71" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J71" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K71" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L71" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M71" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B72" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="16">
+        <v>1</v>
+      </c>
+      <c r="D72" s="17">
+        <v>2</v>
+      </c>
+      <c r="E72" s="17">
+        <v>0</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G72" s="17">
+        <v>1</v>
+      </c>
+      <c r="H72" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I72" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J72" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K72" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L72" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M72" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B73" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" s="16">
+        <v>1</v>
+      </c>
+      <c r="D73" s="17">
+        <v>2</v>
+      </c>
+      <c r="E73" s="17">
+        <v>0</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G73" s="17">
+        <v>0</v>
+      </c>
+      <c r="H73" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I73" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J73" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K73" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L73" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M73" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B74" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="16">
+        <v>1</v>
+      </c>
+      <c r="D74" s="17">
+        <v>0</v>
+      </c>
+      <c r="E74" s="17">
+        <v>0</v>
+      </c>
+      <c r="F74" s="17">
+        <v>1</v>
+      </c>
+      <c r="G74" s="17">
+        <v>0</v>
+      </c>
+      <c r="H74" s="17">
+        <v>0</v>
+      </c>
+      <c r="I74" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J74" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K74" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L74" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M74" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B75" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="16">
+        <v>1</v>
+      </c>
+      <c r="D75" s="17">
+        <v>0</v>
+      </c>
+      <c r="E75" s="17">
+        <v>0</v>
+      </c>
+      <c r="F75" s="17">
+        <v>1</v>
+      </c>
+      <c r="G75" s="17">
+        <v>0</v>
+      </c>
+      <c r="H75" s="17">
+        <v>1</v>
+      </c>
+      <c r="I75" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J75" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K75" s="17">
+        <v>0</v>
+      </c>
+      <c r="L75" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M75" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B76" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" s="16">
+        <v>1</v>
+      </c>
+      <c r="D76" s="17">
+        <v>0</v>
+      </c>
+      <c r="E76" s="17">
+        <v>0</v>
+      </c>
+      <c r="F76" s="17">
+        <v>0</v>
+      </c>
+      <c r="G76" s="17">
+        <v>0</v>
+      </c>
+      <c r="H76" s="17">
+        <v>1</v>
+      </c>
+      <c r="I76" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J76" s="17">
+        <v>1</v>
+      </c>
+      <c r="K76" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L76" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M76" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B77" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" s="16">
+        <v>1</v>
+      </c>
+      <c r="D77" s="17">
+        <v>0</v>
+      </c>
+      <c r="E77" s="17">
+        <v>0</v>
+      </c>
+      <c r="F77" s="17">
+        <v>1</v>
+      </c>
+      <c r="G77" s="17">
+        <v>0</v>
+      </c>
+      <c r="H77" s="17">
+        <v>1</v>
+      </c>
+      <c r="I77" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J77" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K77" s="17">
+        <v>1</v>
+      </c>
+      <c r="L77" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M77" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B78" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" s="16">
+        <v>1</v>
+      </c>
+      <c r="D78" s="17">
+        <v>0</v>
+      </c>
+      <c r="E78" s="17">
+        <v>0</v>
+      </c>
+      <c r="F78" s="17">
+        <v>0</v>
+      </c>
+      <c r="G78" s="17">
+        <v>0</v>
+      </c>
+      <c r="H78" s="17">
+        <v>1</v>
+      </c>
+      <c r="I78" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J78" s="17">
+        <v>0</v>
+      </c>
+      <c r="K78" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L78" s="17">
+        <v>1</v>
+      </c>
+      <c r="M78" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B79" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" s="16">
+        <v>1</v>
+      </c>
+      <c r="D79" s="17">
+        <v>0</v>
+      </c>
+      <c r="E79" s="17">
+        <v>0</v>
+      </c>
+      <c r="F79" s="17">
+        <v>0</v>
+      </c>
+      <c r="G79" s="17">
+        <v>0</v>
+      </c>
+      <c r="H79" s="17">
+        <v>1</v>
+      </c>
+      <c r="I79" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J79" s="17">
+        <v>0</v>
+      </c>
+      <c r="K79" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L79" s="17">
+        <v>0</v>
+      </c>
+      <c r="M79" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B80" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" s="16">
+        <v>1</v>
+      </c>
+      <c r="D80" s="17">
+        <v>0</v>
+      </c>
+      <c r="E80" s="17">
+        <v>0</v>
+      </c>
+      <c r="F80" s="17">
+        <v>0</v>
+      </c>
+      <c r="G80" s="17">
+        <v>1</v>
+      </c>
+      <c r="H80" s="17">
+        <v>1</v>
+      </c>
+      <c r="I80" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J80" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K80" s="17">
+        <v>0</v>
+      </c>
+      <c r="L80" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M80" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B81" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="16">
+        <v>1</v>
+      </c>
+      <c r="D81" s="17">
+        <v>0</v>
+      </c>
+      <c r="E81" s="17">
+        <v>0</v>
+      </c>
+      <c r="F81" s="17">
+        <v>1</v>
+      </c>
+      <c r="G81" s="17">
+        <v>1</v>
+      </c>
+      <c r="H81" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I81" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J81" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K81" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L81" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M81" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B82" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" s="16">
+        <v>1</v>
+      </c>
+      <c r="D82" s="17">
+        <v>0</v>
+      </c>
+      <c r="E82" s="17">
+        <v>1</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H82" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I82" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J82" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K82" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L82" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M82" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B83" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" s="16">
+        <v>1</v>
+      </c>
+      <c r="D83" s="17">
+        <v>0</v>
+      </c>
+      <c r="E83" s="17">
+        <v>0</v>
+      </c>
+      <c r="F83" s="17">
+        <v>0</v>
+      </c>
+      <c r="G83" s="17">
+        <v>1</v>
+      </c>
+      <c r="H83" s="17">
+        <v>1</v>
+      </c>
+      <c r="I83" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J83" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K83" s="17">
+        <v>1</v>
+      </c>
+      <c r="L83" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M83" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B84" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="16">
+        <v>1</v>
+      </c>
+      <c r="D84" s="17">
+        <v>1</v>
+      </c>
+      <c r="E84" s="17">
+        <v>1</v>
+      </c>
+      <c r="F84" s="17">
+        <v>0</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H84" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I84" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J84" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K84" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L84" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M84" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B85" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="16">
+        <v>1</v>
+      </c>
+      <c r="D85" s="17">
+        <v>1</v>
+      </c>
+      <c r="E85" s="17">
+        <v>1</v>
+      </c>
+      <c r="F85" s="17">
+        <v>2</v>
+      </c>
+      <c r="G85" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H85" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I85" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J85" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K85" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L85" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="M85" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C86" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D86" s="4"/>
+      <c r="E86" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
